--- a/groups/22-23/tasks_results/22.12.01.xlsx
+++ b/groups/22-23/tasks_results/22.12.01.xlsx
@@ -37,15 +37,15 @@
     <t>Медведев Александр</t>
   </si>
   <si>
+    <t>Дегтерева Карина</t>
+  </si>
+  <si>
     <t>Казаков Максим</t>
   </si>
   <si>
     <t>Поддубецкий Антон</t>
   </si>
   <si>
-    <t>Дегтерева Карина</t>
-  </si>
-  <si>
     <t>Карпович Александр</t>
   </si>
   <si>
@@ -58,15 +58,15 @@
     <t>Шатохин Данил</t>
   </si>
   <si>
+    <t>Селедкин Ярослав</t>
+  </si>
+  <si>
     <t>Трегубович Андрей</t>
   </si>
   <si>
     <t>Пяткова Валерия</t>
   </si>
   <si>
-    <t>Селедкин Ярослав</t>
-  </si>
-  <si>
     <t>Виктор Морозов</t>
   </si>
   <si>
@@ -91,15 +91,15 @@
     <t>369107</t>
   </si>
   <si>
+    <t>416762</t>
+  </si>
+  <si>
     <t>321540</t>
   </si>
   <si>
     <t>369588</t>
   </si>
   <si>
-    <t>416762</t>
-  </si>
-  <si>
     <t>321423</t>
   </si>
   <si>
@@ -112,13 +112,13 @@
     <t>415486</t>
   </si>
   <si>
+    <t>415633</t>
+  </si>
+  <si>
     <t>352865</t>
   </si>
   <si>
     <t>417223</t>
-  </si>
-  <si>
-    <t>415633</t>
   </si>
   <si>
     <t>417133</t>
@@ -693,10 +693,10 @@
         <v>0</v>
       </c>
       <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
         <v>1</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -800,7 +800,7 @@
       <c r="D6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>41</v>
       </c>
     </row>

--- a/groups/22-23/tasks_results/22.12.01.xlsx
+++ b/groups/22-23/tasks_results/22.12.01.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="57">
   <si>
     <t>№</t>
   </si>
@@ -52,15 +52,15 @@
     <t>Ченченко Даниил</t>
   </si>
   <si>
+    <t>Селедкин Ярослав</t>
+  </si>
+  <si>
     <t>Провалинский Владимир</t>
   </si>
   <si>
     <t>Шатохин Данил</t>
   </si>
   <si>
-    <t>Селедкин Ярослав</t>
-  </si>
-  <si>
     <t>Трегубович Андрей</t>
   </si>
   <si>
@@ -106,13 +106,13 @@
     <t>415632</t>
   </si>
   <si>
+    <t>415633</t>
+  </si>
+  <si>
     <t>371742</t>
   </si>
   <si>
     <t>415486</t>
-  </si>
-  <si>
-    <t>415633</t>
   </si>
   <si>
     <t>352865</t>
@@ -684,7 +684,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -884,7 +884,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
         <v>53</v>
       </c>
@@ -892,15 +892,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="E18" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
         <v>56</v>
       </c>

--- a/groups/22-23/tasks_results/22.12.01.xlsx
+++ b/groups/22-23/tasks_results/22.12.01.xlsx
@@ -40,27 +40,27 @@
     <t>Дегтерева Карина</t>
   </si>
   <si>
+    <t>Поддубецкий Антон</t>
+  </si>
+  <si>
     <t>Казаков Максим</t>
   </si>
   <si>
-    <t>Поддубецкий Антон</t>
-  </si>
-  <si>
     <t>Карпович Александр</t>
   </si>
   <si>
     <t>Ченченко Даниил</t>
   </si>
   <si>
+    <t>Шатохин Данил</t>
+  </si>
+  <si>
     <t>Селедкин Ярослав</t>
   </si>
   <si>
     <t>Провалинский Владимир</t>
   </si>
   <si>
-    <t>Шатохин Данил</t>
-  </si>
-  <si>
     <t>Трегубович Андрей</t>
   </si>
   <si>
@@ -94,25 +94,25 @@
     <t>416762</t>
   </si>
   <si>
+    <t>369588</t>
+  </si>
+  <si>
     <t>321540</t>
   </si>
   <si>
-    <t>369588</t>
-  </si>
-  <si>
     <t>321423</t>
   </si>
   <si>
     <t>415632</t>
   </si>
   <si>
+    <t>415486</t>
+  </si>
+  <si>
     <t>415633</t>
   </si>
   <si>
     <t>371742</t>
-  </si>
-  <si>
-    <t>415486</t>
   </si>
   <si>
     <t>352865</t>
@@ -693,10 +693,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -800,7 +800,7 @@
       <c r="D6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>41</v>
       </c>
     </row>

--- a/groups/22-23/tasks_results/22.12.01.xlsx
+++ b/groups/22-23/tasks_results/22.12.01.xlsx
@@ -28,33 +28,33 @@
     <t>Вахитова Екатерина</t>
   </si>
   <si>
+    <t>Ченченко Даниил</t>
+  </si>
+  <si>
     <t>Коляда Вадим</t>
   </si>
   <si>
     <t>Леонтьв Дмитрий</t>
   </si>
   <si>
+    <t>Поддубецкий Антон</t>
+  </si>
+  <si>
+    <t>Шатохин Данил</t>
+  </si>
+  <si>
     <t>Медведев Александр</t>
   </si>
   <si>
     <t>Дегтерева Карина</t>
   </si>
   <si>
-    <t>Поддубецкий Антон</t>
-  </si>
-  <si>
     <t>Казаков Максим</t>
   </si>
   <si>
     <t>Карпович Александр</t>
   </si>
   <si>
-    <t>Ченченко Даниил</t>
-  </si>
-  <si>
-    <t>Шатохин Данил</t>
-  </si>
-  <si>
     <t>Селедкин Ярослав</t>
   </si>
   <si>
@@ -82,31 +82,31 @@
     <t>262625</t>
   </si>
   <si>
+    <t>430719</t>
+  </si>
+  <si>
     <t>321426</t>
   </si>
   <si>
     <t>328905</t>
   </si>
   <si>
+    <t>369588</t>
+  </si>
+  <si>
+    <t>415486</t>
+  </si>
+  <si>
     <t>369107</t>
   </si>
   <si>
     <t>416762</t>
   </si>
   <si>
-    <t>369588</t>
-  </si>
-  <si>
     <t>321540</t>
   </si>
   <si>
     <t>321423</t>
-  </si>
-  <si>
-    <t>415632</t>
-  </si>
-  <si>
-    <t>415486</t>
   </si>
   <si>
     <t>415633</t>
@@ -681,19 +681,19 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -797,10 +797,10 @@
       <c r="B6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>41</v>
       </c>
     </row>
@@ -884,7 +884,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
         <v>53</v>
       </c>
@@ -892,18 +892,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
         <v>56</v>
       </c>

--- a/groups/22-23/tasks_results/22.12.01.xlsx
+++ b/groups/22-23/tasks_results/22.12.01.xlsx
@@ -46,6 +46,9 @@
     <t>Медведев Александр</t>
   </si>
   <si>
+    <t>Трегубович Андрей</t>
+  </si>
+  <si>
     <t>Дегтерева Карина</t>
   </si>
   <si>
@@ -61,9 +64,6 @@
     <t>Провалинский Владимир</t>
   </si>
   <si>
-    <t>Трегубович Андрей</t>
-  </si>
-  <si>
     <t>Пяткова Валерия</t>
   </si>
   <si>
@@ -100,6 +100,9 @@
     <t>369107</t>
   </si>
   <si>
+    <t>321411</t>
+  </si>
+  <si>
     <t>416762</t>
   </si>
   <si>
@@ -113,9 +116,6 @@
   </si>
   <si>
     <t>371742</t>
-  </si>
-  <si>
-    <t>352865</t>
   </si>
   <si>
     <t>417223</t>

--- a/groups/22-23/tasks_results/22.12.01.xlsx
+++ b/groups/22-23/tasks_results/22.12.01.xlsx
@@ -31,18 +31,18 @@
     <t>Ченченко Даниил</t>
   </si>
   <si>
+    <t>Поддубецкий Антон</t>
+  </si>
+  <si>
     <t>Коляда Вадим</t>
   </si>
   <si>
+    <t>Шатохин Данил</t>
+  </si>
+  <si>
     <t>Леонтьв Дмитрий</t>
   </si>
   <si>
-    <t>Поддубецкий Антон</t>
-  </si>
-  <si>
-    <t>Шатохин Данил</t>
-  </si>
-  <si>
     <t>Медведев Александр</t>
   </si>
   <si>
@@ -55,12 +55,12 @@
     <t>Казаков Максим</t>
   </si>
   <si>
+    <t>Селедкин Ярослав</t>
+  </si>
+  <si>
     <t>Карпович Александр</t>
   </si>
   <si>
-    <t>Селедкин Ярослав</t>
-  </si>
-  <si>
     <t>Провалинский Владимир</t>
   </si>
   <si>
@@ -85,18 +85,18 @@
     <t>430719</t>
   </si>
   <si>
+    <t>369588</t>
+  </si>
+  <si>
     <t>321426</t>
   </si>
   <si>
+    <t>415486</t>
+  </si>
+  <si>
     <t>328905</t>
   </si>
   <si>
-    <t>369588</t>
-  </si>
-  <si>
-    <t>415486</t>
-  </si>
-  <si>
     <t>369107</t>
   </si>
   <si>
@@ -109,10 +109,10 @@
     <t>321540</t>
   </si>
   <si>
+    <t>415633</t>
+  </si>
+  <si>
     <t>321423</t>
-  </si>
-  <si>
-    <t>415633</t>
   </si>
   <si>
     <t>371742</t>
@@ -690,10 +690,10 @@
         <v>1</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>1</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -800,7 +800,7 @@
       <c r="E6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>41</v>
       </c>
     </row>
@@ -884,7 +884,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:8">
       <c r="A17" s="2" t="s">
         <v>53</v>
       </c>
@@ -892,18 +892,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="H18" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="2" t="s">
         <v>56</v>
       </c>

--- a/groups/22-23/tasks_results/22.12.01.xlsx
+++ b/groups/22-23/tasks_results/22.12.01.xlsx
@@ -34,15 +34,18 @@
     <t>Поддубецкий Антон</t>
   </si>
   <si>
+    <t>Шатохин Данил</t>
+  </si>
+  <si>
     <t>Коляда Вадим</t>
   </si>
   <si>
-    <t>Шатохин Данил</t>
-  </si>
-  <si>
     <t>Леонтьв Дмитрий</t>
   </si>
   <si>
+    <t>Селедкин Ярослав</t>
+  </si>
+  <si>
     <t>Медведев Александр</t>
   </si>
   <si>
@@ -55,9 +58,6 @@
     <t>Казаков Максим</t>
   </si>
   <si>
-    <t>Селедкин Ярослав</t>
-  </si>
-  <si>
     <t>Карпович Александр</t>
   </si>
   <si>
@@ -88,15 +88,18 @@
     <t>369588</t>
   </si>
   <si>
+    <t>415486</t>
+  </si>
+  <si>
     <t>321426</t>
   </si>
   <si>
-    <t>415486</t>
-  </si>
-  <si>
     <t>328905</t>
   </si>
   <si>
+    <t>415633</t>
+  </si>
+  <si>
     <t>369107</t>
   </si>
   <si>
@@ -107,9 +110,6 @@
   </si>
   <si>
     <t>321540</t>
-  </si>
-  <si>
-    <t>415633</t>
   </si>
   <si>
     <t>321423</t>
@@ -687,10 +687,10 @@
         <v>1</v>
       </c>
       <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
         <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -800,7 +800,7 @@
       <c r="E6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>41</v>
       </c>
     </row>

--- a/groups/22-23/tasks_results/22.12.01.xlsx
+++ b/groups/22-23/tasks_results/22.12.01.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Результаты" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$R$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$R$4</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>№</t>
   </si>
@@ -25,27 +25,27 @@
     <t>Шестаков Вячеслав</t>
   </si>
   <si>
+    <t>Ченченко Даниил</t>
+  </si>
+  <si>
     <t>Вахитова Екатерина</t>
   </si>
   <si>
-    <t>Ченченко Даниил</t>
-  </si>
-  <si>
     <t>Поддубецкий Антон</t>
   </si>
   <si>
     <t>Шатохин Данил</t>
   </si>
   <si>
+    <t>Селедкин Ярослав</t>
+  </si>
+  <si>
+    <t>Леонтьв Дмитрий</t>
+  </si>
+  <si>
     <t>Коляда Вадим</t>
   </si>
   <si>
-    <t>Леонтьв Дмитрий</t>
-  </si>
-  <si>
-    <t>Селедкин Ярослав</t>
-  </si>
-  <si>
     <t>Медведев Александр</t>
   </si>
   <si>
@@ -79,27 +79,27 @@
     <t>263178</t>
   </si>
   <si>
+    <t>430719</t>
+  </si>
+  <si>
     <t>262625</t>
   </si>
   <si>
-    <t>430719</t>
-  </si>
-  <si>
     <t>369588</t>
   </si>
   <si>
     <t>415486</t>
   </si>
   <si>
+    <t>415633</t>
+  </si>
+  <si>
+    <t>328905</t>
+  </si>
+  <si>
     <t>321426</t>
   </si>
   <si>
-    <t>328905</t>
-  </si>
-  <si>
-    <t>415633</t>
-  </si>
-  <si>
     <t>369107</t>
   </si>
   <si>
@@ -131,63 +131,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>1+</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>1+, 1-</t>
-  </si>
-  <si>
-    <t>237</t>
-  </si>
-  <si>
-    <t>332</t>
-  </si>
-  <si>
-    <t>449</t>
-  </si>
-  <si>
-    <t>556</t>
-  </si>
-  <si>
-    <t>582</t>
-  </si>
-  <si>
-    <t>709</t>
-  </si>
-  <si>
-    <t>724</t>
-  </si>
-  <si>
-    <t>1+, 5-</t>
-  </si>
-  <si>
-    <t>732</t>
-  </si>
-  <si>
-    <t>739</t>
-  </si>
-  <si>
-    <t>806</t>
-  </si>
-  <si>
-    <t>1456</t>
-  </si>
-  <si>
-    <t>1499</t>
-  </si>
-  <si>
-    <t>1+, 2-</t>
-  </si>
-  <si>
-    <t>1768</t>
   </si>
 </sst>
 </file>
@@ -219,18 +162,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF008000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -245,13 +182,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -546,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -675,7 +611,7 @@
         <v>36</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -684,16 +620,16 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -782,137 +718,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="A11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="A15" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="A16" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:R19"/>
+  <autoFilter ref="A1:R4"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="C2" r:id="rId2"/>
@@ -931,21 +738,6 @@
     <hyperlink ref="P2" r:id="rId15"/>
     <hyperlink ref="Q2" r:id="rId16"/>
     <hyperlink ref="R2" r:id="rId17"/>
-    <hyperlink ref="A5" r:id="rId18"/>
-    <hyperlink ref="A6" r:id="rId19"/>
-    <hyperlink ref="A7" r:id="rId20"/>
-    <hyperlink ref="A8" r:id="rId21"/>
-    <hyperlink ref="A9" r:id="rId22"/>
-    <hyperlink ref="A10" r:id="rId23"/>
-    <hyperlink ref="A11" r:id="rId24"/>
-    <hyperlink ref="A12" r:id="rId25"/>
-    <hyperlink ref="A13" r:id="rId26"/>
-    <hyperlink ref="A14" r:id="rId27"/>
-    <hyperlink ref="A15" r:id="rId28"/>
-    <hyperlink ref="A16" r:id="rId29"/>
-    <hyperlink ref="A17" r:id="rId30"/>
-    <hyperlink ref="A18" r:id="rId31"/>
-    <hyperlink ref="A19" r:id="rId32"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/groups/22-23/tasks_results/22.12.01.xlsx
+++ b/groups/22-23/tasks_results/22.12.01.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Результаты" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$R$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$R$19</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="57">
   <si>
     <t>№</t>
   </si>
@@ -131,6 +131,63 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>1+</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>1+, 1-</t>
+  </si>
+  <si>
+    <t>237</t>
+  </si>
+  <si>
+    <t>332</t>
+  </si>
+  <si>
+    <t>449</t>
+  </si>
+  <si>
+    <t>556</t>
+  </si>
+  <si>
+    <t>582</t>
+  </si>
+  <si>
+    <t>709</t>
+  </si>
+  <si>
+    <t>724</t>
+  </si>
+  <si>
+    <t>1+, 5-</t>
+  </si>
+  <si>
+    <t>732</t>
+  </si>
+  <si>
+    <t>739</t>
+  </si>
+  <si>
+    <t>806</t>
+  </si>
+  <si>
+    <t>1456</t>
+  </si>
+  <si>
+    <t>1499</t>
+  </si>
+  <si>
+    <t>1+, 2-</t>
+  </si>
+  <si>
+    <t>1768</t>
   </si>
 </sst>
 </file>
@@ -162,12 +219,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF008000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -182,12 +245,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,7 +546,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -611,7 +675,7 @@
         <v>36</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -620,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -629,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -718,8 +782,143 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:R4"/>
+  <autoFilter ref="A1:R19"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="C2" r:id="rId2"/>
@@ -738,6 +937,21 @@
     <hyperlink ref="P2" r:id="rId15"/>
     <hyperlink ref="Q2" r:id="rId16"/>
     <hyperlink ref="R2" r:id="rId17"/>
+    <hyperlink ref="A5" r:id="rId18"/>
+    <hyperlink ref="A6" r:id="rId19"/>
+    <hyperlink ref="A7" r:id="rId20"/>
+    <hyperlink ref="A8" r:id="rId21"/>
+    <hyperlink ref="A9" r:id="rId22"/>
+    <hyperlink ref="A10" r:id="rId23"/>
+    <hyperlink ref="A11" r:id="rId24"/>
+    <hyperlink ref="A12" r:id="rId25"/>
+    <hyperlink ref="A13" r:id="rId26"/>
+    <hyperlink ref="A14" r:id="rId27"/>
+    <hyperlink ref="A15" r:id="rId28"/>
+    <hyperlink ref="A16" r:id="rId29"/>
+    <hyperlink ref="A17" r:id="rId30"/>
+    <hyperlink ref="A18" r:id="rId31"/>
+    <hyperlink ref="A19" r:id="rId32"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/groups/22-23/tasks_results/22.12.01.xlsx
+++ b/groups/22-23/tasks_results/22.12.01.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Результаты" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$R$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$U$20</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="78">
   <si>
     <t>№</t>
   </si>
@@ -28,7 +28,7 @@
     <t>Ченченко Даниил</t>
   </si>
   <si>
-    <t>Вахитова Екатерина</t>
+    <t>Екатерина Юрьевна</t>
   </si>
   <si>
     <t>Поддубецкий Антон</t>
@@ -40,7 +40,7 @@
     <t>Селедкин Ярослав</t>
   </si>
   <si>
-    <t>Леонтьв Дмитрий</t>
+    <t>Леонтьев Дмитрий</t>
   </si>
   <si>
     <t>Коляда Вадим</t>
@@ -73,7 +73,16 @@
     <t>Глушков Артём</t>
   </si>
   <si>
-    <t>ID</t>
+    <t>Грачёв Ромен</t>
+  </si>
+  <si>
+    <t>Костюнин Егор</t>
+  </si>
+  <si>
+    <t>Урцегов Артём</t>
+  </si>
+  <si>
+    <t>Acmp</t>
   </si>
   <si>
     <t>263178</t>
@@ -127,6 +136,57 @@
     <t>418688</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>Codeforces</t>
+  </si>
+  <si>
+    <t>slavashestakov2005</t>
+  </si>
+  <si>
+    <t>pchelka12</t>
+  </si>
+  <si>
+    <t>a_ntony</t>
+  </si>
+  <si>
+    <t>Dinelo</t>
+  </si>
+  <si>
+    <t>sen1van</t>
+  </si>
+  <si>
+    <t>Vadlm</t>
+  </si>
+  <si>
+    <t>Sasha_Medvedev</t>
+  </si>
+  <si>
+    <t>AndreBc</t>
+  </si>
+  <si>
+    <t>degterevvva</t>
+  </si>
+  <si>
+    <t>044s4</t>
+  </si>
+  <si>
+    <t>ABRAMOVICHH</t>
+  </si>
+  <si>
+    <t>art3m_glushkov</t>
+  </si>
+  <si>
+    <t>Romafka</t>
+  </si>
+  <si>
+    <t>kjuby</t>
+  </si>
+  <si>
+    <t>AbramovichLinkoln</t>
+  </si>
+  <si>
     <t>+</t>
   </si>
   <si>
@@ -185,6 +245,9 @@
   </si>
   <si>
     <t>1+, 2-</t>
+  </si>
+  <si>
+    <t>3+, 6-</t>
   </si>
   <si>
     <t>1768</t>
@@ -546,7 +609,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:U20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -555,10 +618,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="18" width="10.7109375" customWidth="1"/>
+    <col min="1" max="21" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -613,153 +676,180 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>38</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3">
+        <v>40</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4">
         <v>15</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>1</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>2</v>
       </c>
-      <c r="I3">
+      <c r="I4">
         <v>1</v>
       </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
         <v>1</v>
       </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
       <c r="L4">
         <v>0</v>
       </c>
@@ -781,144 +871,218 @@
       <c r="R4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="2" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>59</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="2" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>59</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="2" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" s="2" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" s="2" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" s="2" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" s="2" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" s="2" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" s="2" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" s="2" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" s="2" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="2" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>55</v>
+        <v>75</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R19"/>
+  <autoFilter ref="A1:U20"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="C2" r:id="rId2"/>
@@ -937,21 +1101,44 @@
     <hyperlink ref="P2" r:id="rId15"/>
     <hyperlink ref="Q2" r:id="rId16"/>
     <hyperlink ref="R2" r:id="rId17"/>
-    <hyperlink ref="A5" r:id="rId18"/>
-    <hyperlink ref="A6" r:id="rId19"/>
-    <hyperlink ref="A7" r:id="rId20"/>
-    <hyperlink ref="A8" r:id="rId21"/>
-    <hyperlink ref="A9" r:id="rId22"/>
-    <hyperlink ref="A10" r:id="rId23"/>
-    <hyperlink ref="A11" r:id="rId24"/>
-    <hyperlink ref="A12" r:id="rId25"/>
-    <hyperlink ref="A13" r:id="rId26"/>
-    <hyperlink ref="A14" r:id="rId27"/>
-    <hyperlink ref="A15" r:id="rId28"/>
-    <hyperlink ref="A16" r:id="rId29"/>
-    <hyperlink ref="A17" r:id="rId30"/>
-    <hyperlink ref="A18" r:id="rId31"/>
-    <hyperlink ref="A19" r:id="rId32"/>
+    <hyperlink ref="S2" r:id="rId18"/>
+    <hyperlink ref="T2" r:id="rId19"/>
+    <hyperlink ref="U2" r:id="rId20"/>
+    <hyperlink ref="B3" r:id="rId21"/>
+    <hyperlink ref="C3" r:id="rId22"/>
+    <hyperlink ref="D3" r:id="rId23"/>
+    <hyperlink ref="E3" r:id="rId24"/>
+    <hyperlink ref="F3" r:id="rId25"/>
+    <hyperlink ref="G3" r:id="rId26"/>
+    <hyperlink ref="H3" r:id="rId27"/>
+    <hyperlink ref="I3" r:id="rId28"/>
+    <hyperlink ref="J3" r:id="rId29"/>
+    <hyperlink ref="K3" r:id="rId30"/>
+    <hyperlink ref="L3" r:id="rId31"/>
+    <hyperlink ref="M3" r:id="rId32"/>
+    <hyperlink ref="N3" r:id="rId33"/>
+    <hyperlink ref="O3" r:id="rId34"/>
+    <hyperlink ref="P3" r:id="rId35"/>
+    <hyperlink ref="Q3" r:id="rId36"/>
+    <hyperlink ref="R3" r:id="rId37"/>
+    <hyperlink ref="S3" r:id="rId38"/>
+    <hyperlink ref="T3" r:id="rId39"/>
+    <hyperlink ref="U3" r:id="rId40"/>
+    <hyperlink ref="A6" r:id="rId41"/>
+    <hyperlink ref="A7" r:id="rId42"/>
+    <hyperlink ref="A8" r:id="rId43"/>
+    <hyperlink ref="A9" r:id="rId44"/>
+    <hyperlink ref="A10" r:id="rId45"/>
+    <hyperlink ref="A11" r:id="rId46"/>
+    <hyperlink ref="A12" r:id="rId47"/>
+    <hyperlink ref="A13" r:id="rId48"/>
+    <hyperlink ref="A14" r:id="rId49"/>
+    <hyperlink ref="A15" r:id="rId50"/>
+    <hyperlink ref="A16" r:id="rId51"/>
+    <hyperlink ref="A17" r:id="rId52"/>
+    <hyperlink ref="A18" r:id="rId53"/>
+    <hyperlink ref="A19" r:id="rId54"/>
+    <hyperlink ref="A20" r:id="rId55"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/groups/22-23/tasks_results/22.12.01.xlsx
+++ b/groups/22-23/tasks_results/22.12.01.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="79">
   <si>
     <t>№</t>
   </si>
@@ -239,6 +239,9 @@
   </si>
   <si>
     <t>1456</t>
+  </si>
+  <si>
+    <t>1-</t>
   </si>
   <si>
     <t>1499</t>
@@ -282,7 +285,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -292,6 +295,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF008000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,13 +317,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -824,7 +834,7 @@
         <v>15</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -889,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -964,6 +974,9 @@
       <c r="B7" s="3" t="s">
         <v>59</v>
       </c>
+      <c r="C7" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="E7" s="3" t="s">
         <v>61</v>
       </c>
@@ -989,6 +1002,9 @@
       <c r="B9" s="3" t="s">
         <v>59</v>
       </c>
+      <c r="C9" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="2" t="s">
@@ -1061,24 +1077,27 @@
       <c r="B18" s="3" t="s">
         <v>59</v>
       </c>
+      <c r="C18" s="4" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
